--- a/problemset7/hw7.1-3.xlsx
+++ b/problemset7/hw7.1-3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01B948E-9B28-064F-899D-9446ED14B646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A84C624-4F82-7F4C-9C04-DF12100719F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="760" windowWidth="25440" windowHeight="15400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="760" windowWidth="25440" windowHeight="15400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.1.Cycle-5" sheetId="3" r:id="rId1"/>
@@ -713,7 +713,7 @@
   <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C18" sqref="A1:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E18" sqref="A1:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2039,8 +2039,8 @@
   </sheetPr>
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2585,8 +2585,8 @@
   </sheetPr>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
